--- a/Cum SWE v spring Precip.xlsx
+++ b/Cum SWE v spring Precip.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Apr1 SWE spr Pre" sheetId="1" r:id="rId1"/>
+    <sheet name="Jun 1 Cum SWE spr Pre" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>SWE</t>
+    <t>Cum SWE</t>
   </si>
   <si>
-    <t>CUM SWE</t>
+    <t>Precip</t>
   </si>
   <si>
     <t>Date</t>
@@ -1097,6 +1097,9 @@
       <c r="A89" s="2">
         <v>29951</v>
       </c>
+      <c r="B89">
+        <v>0.219838518712738</v>
+      </c>
       <c r="C89">
         <v>0.987281348641201</v>
       </c>
@@ -1105,6 +1108,9 @@
       <c r="A90" s="2">
         <v>30316</v>
       </c>
+      <c r="B90">
+        <v>1.31759702305832</v>
+      </c>
       <c r="C90">
         <v>1.1082080892601</v>
       </c>
@@ -1113,6 +1119,9 @@
       <c r="A91" s="2">
         <v>30681</v>
       </c>
+      <c r="B91">
+        <v>0.881958542477644</v>
+      </c>
       <c r="C91">
         <v>1.43001064009222</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>31047</v>
       </c>
       <c r="B92">
-        <v>0.751382113821138</v>
+        <v>0.983456699291138</v>
       </c>
       <c r="C92">
         <v>1.38453653612197</v>
@@ -1132,6 +1141,9 @@
       <c r="A93" s="2">
         <v>31412</v>
       </c>
+      <c r="B93">
+        <v>1.35666002514005</v>
+      </c>
       <c r="C93">
         <v>0.832585314136358</v>
       </c>
@@ -1140,6 +1152,9 @@
       <c r="A94" s="2">
         <v>31777</v>
       </c>
+      <c r="B94">
+        <v>0.840497299842953</v>
+      </c>
       <c r="C94">
         <v>1.2413677654665</v>
       </c>
@@ -1148,6 +1163,9 @@
       <c r="A95" s="2">
         <v>32142</v>
       </c>
+      <c r="B95">
+        <v>0.760513131329529</v>
+      </c>
       <c r="C95">
         <v>0.886612633429166</v>
       </c>
@@ -1156,6 +1174,9 @@
       <c r="A96" s="2">
         <v>32508</v>
       </c>
+      <c r="B96">
+        <v>0.812387354203956</v>
+      </c>
       <c r="C96">
         <v>1.02274772623291</v>
       </c>
@@ -1164,6 +1185,9 @@
       <c r="A97" s="2">
         <v>32873</v>
       </c>
+      <c r="B97">
+        <v>1.36497968823006</v>
+      </c>
       <c r="C97">
         <v>1.02937281598633</v>
       </c>
@@ -1173,7 +1197,7 @@
         <v>33238</v>
       </c>
       <c r="B98">
-        <v>1.13585899050017</v>
+        <v>0.905539329581574</v>
       </c>
       <c r="C98">
         <v>1.12443180886415</v>
@@ -1183,6 +1207,9 @@
       <c r="A99" s="2">
         <v>33603</v>
       </c>
+      <c r="B99">
+        <v>0.591378639059433</v>
+      </c>
       <c r="C99">
         <v>1.22664918258982</v>
       </c>
@@ -1191,6 +1218,9 @@
       <c r="A100" s="2">
         <v>33969</v>
       </c>
+      <c r="B100">
+        <v>0.343226548698312</v>
+      </c>
       <c r="C100">
         <v>0.76956394954223</v>
       </c>
@@ -1199,6 +1229,9 @@
       <c r="A101" s="2">
         <v>34334</v>
       </c>
+      <c r="B101">
+        <v>1.20634439586806</v>
+      </c>
       <c r="C101">
         <v>1.28023263629527</v>
       </c>
@@ -1207,6 +1240,9 @@
       <c r="A102" s="2">
         <v>34699</v>
       </c>
+      <c r="B102">
+        <v>0.583937852562806</v>
+      </c>
       <c r="C102">
         <v>0.876456988790492</v>
       </c>
@@ -1215,6 +1251,9 @@
       <c r="A103" s="2">
         <v>35064</v>
       </c>
+      <c r="B103">
+        <v>0.866178129674202</v>
+      </c>
       <c r="C103">
         <v>1.10453135920068</v>
       </c>
@@ -1223,6 +1262,9 @@
       <c r="A104" s="2">
         <v>35430</v>
       </c>
+      <c r="B104">
+        <v>0.766210622802509</v>
+      </c>
       <c r="C104">
         <v>1.57331861899758</v>
       </c>
@@ -1231,6 +1273,9 @@
       <c r="A105" s="2">
         <v>35795</v>
       </c>
+      <c r="B105">
+        <v>1.14787711853592</v>
+      </c>
       <c r="C105">
         <v>1.21635150096319</v>
       </c>
@@ -1239,6 +1284,9 @@
       <c r="A106" s="2">
         <v>36160</v>
       </c>
+      <c r="B106">
+        <v>0.716663559178208</v>
+      </c>
       <c r="C106">
         <v>1.18112632795072</v>
       </c>
@@ -1247,6 +1295,9 @@
       <c r="A107" s="2">
         <v>36525</v>
       </c>
+      <c r="B107">
+        <v>1.68144940991303</v>
+      </c>
       <c r="C107">
         <v>1.41289518304383</v>
       </c>
@@ -1255,6 +1306,9 @@
       <c r="A108" s="2">
         <v>36891</v>
       </c>
+      <c r="B108">
+        <v>1.10249835579447</v>
+      </c>
       <c r="C108">
         <v>1.00283439882211</v>
       </c>
@@ -1264,7 +1318,7 @@
         <v>37256</v>
       </c>
       <c r="B109">
-        <v>0.658578459425432</v>
+        <v>0.543774877410827</v>
       </c>
       <c r="C109">
         <v>0.797924471763006</v>
@@ -1274,6 +1328,9 @@
       <c r="A110" s="2">
         <v>37621</v>
       </c>
+      <c r="B110">
+        <v>1.33381651066071</v>
+      </c>
       <c r="C110">
         <v>0.921891070312114</v>
       </c>
@@ -1282,6 +1339,9 @@
       <c r="A111" s="2">
         <v>37986</v>
       </c>
+      <c r="B111">
+        <v>0.517222557140751</v>
+      </c>
       <c r="C111">
         <v>1.25036935957805</v>
       </c>
@@ -1290,6 +1350,9 @@
       <c r="A112" s="2">
         <v>38352</v>
       </c>
+      <c r="B112">
+        <v>1.01415884029892</v>
+      </c>
       <c r="C112">
         <v>0.823375180367925</v>
       </c>
@@ -1298,6 +1361,9 @@
       <c r="A113" s="2">
         <v>38717</v>
       </c>
+      <c r="B113">
+        <v>0.365130747755574</v>
+      </c>
       <c r="C113">
         <v>0.957222771065544</v>
       </c>
@@ -1306,6 +1372,9 @@
       <c r="A114" s="2">
         <v>39082</v>
       </c>
+      <c r="B114">
+        <v>1.10188938171265</v>
+      </c>
       <c r="C114">
         <v>0.856050526751741</v>
       </c>
@@ -1315,7 +1384,7 @@
         <v>39447</v>
       </c>
       <c r="B115">
-        <v>1.09946205791462</v>
+        <v>0.811034056792866</v>
       </c>
       <c r="C115">
         <v>1.01053119628367</v>
@@ -1325,6 +1394,9 @@
       <c r="A116" s="2">
         <v>39813</v>
       </c>
+      <c r="B116">
+        <v>1.75735522677252</v>
+      </c>
       <c r="C116">
         <v>0.9874835972026</v>
       </c>
@@ -1333,6 +1405,9 @@
       <c r="A117" s="2">
         <v>40178</v>
       </c>
+      <c r="B117">
+        <v>1.15305265560657</v>
+      </c>
       <c r="C117">
         <v>1.00196442227089</v>
       </c>
@@ -1341,6 +1416,9 @@
       <c r="A118" s="2">
         <v>40543</v>
       </c>
+      <c r="B118">
+        <v>0.579676734690523</v>
+      </c>
       <c r="C118">
         <v>1.12068958957651</v>
       </c>
@@ -1349,6 +1427,9 @@
       <c r="A119" s="2">
         <v>40908</v>
       </c>
+      <c r="B119">
+        <v>1.14604447215659</v>
+      </c>
       <c r="C119">
         <v>1.39897555822439</v>
       </c>
@@ -1358,7 +1439,7 @@
         <v>41274</v>
       </c>
       <c r="B120">
-        <v>0.95479674796748</v>
+        <v>1.16106000843186</v>
       </c>
       <c r="C120">
         <v>1.41841948593172</v>
@@ -1368,6 +1449,9 @@
       <c r="A121" s="2">
         <v>41639</v>
       </c>
+      <c r="B121">
+        <v>0.94455510574753</v>
+      </c>
       <c r="C121">
         <v>0.77049739577719</v>
       </c>
@@ -1375,6 +1459,9 @@
     <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>42004</v>
+      </c>
+      <c r="B122">
+        <v>0.540967513715515</v>
       </c>
       <c r="C122">
         <v>1.58836412703687</v>
